--- a/AppFolder/StockOut.xlsx
+++ b/AppFolder/StockOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BDC3E-0B01-40BA-B7AA-7AA680D294CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D15A97-B63D-49E9-94A2-C9593E3A19DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{14841CE2-143F-48A3-BD1A-1FDF71C1E48F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Rangeen Pop Small</t>
+  </si>
+  <si>
+    <t>Master Outer</t>
   </si>
 </sst>
 </file>
@@ -111,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BA383-6E86-4FB1-A547-DFE88D89648D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
@@ -592,6 +599,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.22160879629629629</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.22246527777777778</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockOut.xlsx
+++ b/AppFolder/StockOut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D15A97-B63D-49E9-94A2-C9593E3A19DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B0913-6372-43C0-92EF-87961651E0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{14841CE2-143F-48A3-BD1A-1FDF71C1E48F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Master Outer</t>
+  </si>
+  <si>
+    <t>Test007</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BA383-6E86-4FB1-A547-DFE88D89648D}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
@@ -633,6 +639,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45879</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.8344907407407407</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2321</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockOut.xlsx
+++ b/AppFolder/StockOut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B0913-6372-43C0-92EF-87961651E0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC072E-E126-48AC-A6D9-DA1C933A6452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{14841CE2-143F-48A3-BD1A-1FDF71C1E48F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>29-12-2025</t>
+  </si>
+  <si>
+    <t>Chakh It Specials</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BA383-6E86-4FB1-A547-DFE88D89648D}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
@@ -665,6 +671,162 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.62299768518518517</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>123456789</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>46174</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.68356481481481479</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1234567890</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>46174</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.73271990740740744</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1234567890</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>46204</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.4976851851851851E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1234567890</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>46235</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.67984953703703699</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4552</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>46266</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.44473379629629628</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1345</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
